--- a/biology/Botanique/Eucalyptus_sclerophylla/Eucalyptus_sclerophylla.xlsx
+++ b/biology/Botanique/Eucalyptus_sclerophylla/Eucalyptus_sclerophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus sclerophylla est une espèce d'arbre de la famille des Myrtaceae originaire de l'est de l'Australie. Très similaire à Eucalyptus haemastoma, qui lui est apparenté et est plus connu. Eucalyptus sclerophylla se distingue de cette dernière espèce par ses petits fruits hémisphériques ou légèrement en forme de poire, qui mesurent 0,6 cm sur 0,6 cm. Les bourgeons floraux sont également plus petits. Les deux espèces ont des feuilles dures, mais celle de sclerophylla ont des côtés particulièrement coriaces.
 On trouve cette espèce dans des sols pauvres et sableux. Autour de Sydney on le trouve souvent sur les crêtes, où le sol est plus sec et moins fertile. Son aire de répartition s'étend au nord de Jervis Bay, jusqu'au parc national de Watagan.
